--- a/biology/Zoologie/Arkanserpeton/Arkanserpeton.xlsx
+++ b/biology/Zoologie/Arkanserpeton/Arkanserpeton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arkanserpeton arcuatum
 Arkanserpeton est un genre fossile de temnospondyle dissorophoïde. Ce genre et son espèce type Arkanserpeton arcuatum sont, en 2022, nomen dubium de l'ordre des Temnospondyli.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Arkanserpeton et l'espèce Arkanserpeton arcuatum ont été décrits en 1932 par le paléontologue américain Henry H. Lane (d)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Arkanserpeton et l'espèce Arkanserpeton arcuatum ont été décrits en 1932 par le paléontologue américain Henry H. Lane (d).
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Arkanserpeton arcuatum est représentée par un fémur isolé fragmentaire[1] et un arc neural isolé. 
-Ce taxon n'est pas considéré comme suffisamment diagnostiqué et est donc considéré comme nomen dubium par Rainer R. Schoch (d) et Andrew Robert Milner (d) (2014)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Arkanserpeton arcuatum est représentée par un fémur isolé fragmentaire et un arc neural isolé. 
+Ce taxon n'est pas considéré comme suffisamment diagnostiqué et est donc considéré comme nomen dubium par Rainer R. Schoch (d) et Andrew Robert Milner (d) (2014).
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) H. H. Lane, « A new Stegocephalian from the Pennsylvanian of Arkansas », University of Kansas Science Bulletin, vol. 20, no 17,‎ mai 1932, p. 313-317 (ISSN 0022-8850, DOI 10.5962/BHL.PART.19200, lire en ligne)</t>
         </is>
